--- a/biology/Botanique/Caryocar_nuciferum/Caryocar_nuciferum.xlsx
+++ b/biology/Botanique/Caryocar_nuciferum/Caryocar_nuciferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caryocar nuciferum est une espèce de plantes à fleurs de la famille des Caryocaracées. C'est un arbre néotropical. Comme toutes les espèces de Caryocar, il produit des noix comestibles.
-Il est connu sous les noms de  Tata-youba[4], Manteiga au Brésil[5], Imbe, Impê-yek (Arekuna), Almendra[6], Almendro au Venezuela, Sauari nut, Sourie, Butter nut (Créole du Guyana), Hora, Hura  (Arawak), Sawari, Alokomali (Caraïbe)[7], Kola, Sawarie, Souari, Sowari au Guyana, Ingi notto (Sranan tongo) ; Sawali, Sawarie, Soearie (Caraïbe); Sawarie, Oera, Hoera, Koln firebéroe (Arawak)[8], Fireberoe, Kola, Sawari-noot au Suriname, ou encore Souari nut[9], Butter-nut, Pekea-nut, Sawarri-nut (Anglais), Noisette indienne, Pékéa tata-youba, Porte-noix (Français), Nuez souari (Cuba)[4].
+Il est connu sous les noms de  Tata-youba, Manteiga au Brésil, Imbe, Impê-yek (Arekuna), Almendra, Almendro au Venezuela, Sauari nut, Sourie, Butter nut (Créole du Guyana), Hora, Hura  (Arawak), Sawari, Alokomali (Caraïbe), Kola, Sawarie, Souari, Sowari au Guyana, Ingi notto (Sranan tongo) ; Sawali, Sawarie, Soearie (Caraïbe); Sawarie, Oera, Hoera, Koln firebéroe (Arawak), Fireberoe, Kola, Sawari-noot au Suriname, ou encore Souari nut, Butter-nut, Pekea-nut, Sawarri-nut (Anglais), Noisette indienne, Pékéa tata-youba, Porte-noix (Français), Nuez souari (Cuba).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Caryocar nuciferum est un grand arbre atteignant 10-40-45 m de haut, pour un tronc de 45-100 cm de diamètre, facilement reconnaissable des autres espèces de Caryocar par ses fleurs et ses fruits beaucoup plus gros.
 L'écorce externe est de couleur brun foncé, rugueuse.
 L'écorce interne et le bois sont de couleur jaune.
-Le bois parfait est léger à dense (densité : 0 ,56 à 0,92), de couleur brun clair plus ou moins distinct de l'aubier, à grain plutôt grossier, à contre fil fréquent, avec des vaisseaux disséminés, isolés ou accolés radialement par 2-3, au nombre de 8 à 10 par mm2, larges d'environ 160 µm[11].
+Le bois parfait est léger à dense (densité : 0 ,56 à 0,92), de couleur brun clair plus ou moins distinct de l'aubier, à grain plutôt grossier, à contre fil fréquent, avec des vaisseaux disséminés, isolés ou accolés radialement par 2-3, au nombre de 8 à 10 par mm2, larges d'environ 160 µm.
 La cime est grande et étalée.
 Les jeunes branches sont glabres.
 Le feuilles sont opposées-décussées, composées à 3 foliolées.
@@ -542,7 +556,7 @@
 le mésocarpe devenient lignifié et dur, ondulé à l'extérieur avec de courts tubercules arrondis.
 Le péricarpe très épais et charnu, se détache du mésocarpe et de l'endocarpe.
 L'endocarpe est épais d'environ 1 mm, ligneux, dur, brun rougeâtre, constitué d'une fine couche interne (qui porte de longs tubercules à l'extérieur), et d'une couche externe remplissant les interstices entre les tubercules et qui se lignifie ensuite, de sorte que les noyaux mûrs sont à l'extérieur recouverts de tubercules verruqueux très émoussés et courts.
-Les graines sont subréniformes, mesurant environ 2-3 cm de diamètre, à paroi marron, de couleur blanc ivoire à l'intérieur, très riches en huile et matière albumineuse[6],[8],[9],[12],[7],[4].
+Les graines sont subréniformes, mesurant environ 2-3 cm de diamètre, à paroi marron, de couleur blanc ivoire à l'intérieur, très riches en huile et matière albumineuse.
 </t>
         </is>
       </c>
@@ -571,9 +585,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caryocar nuciferum est connu du Venezuela (Delta Amacuro, Bolívar), du nord-ouest du Guyana, du Suriname de la Guyane (très rare), du nord du Brésil (Amazonie), et a été introduit aux Petites Antilles où il est cultivée pour ses graines[7],[6] et dans des jardins botaniques du monde entier (Nigeria, Ceylan, Singapour, etc.)[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caryocar nuciferum est connu du Venezuela (Delta Amacuro, Bolívar), du nord-ouest du Guyana, du Suriname de la Guyane (très rare), du nord du Brésil (Amazonie), et a été introduit aux Petites Antilles où il est cultivée pour ses graines, et dans des jardins botaniques du monde entier (Nigeria, Ceylan, Singapour, etc.).
 </t>
         </is>
       </c>
@@ -602,18 +618,20 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caryocar nuciferum pousse au Venezuela, dans les plaines sempervirentes de terre ferme (non inondées) et les forêts de montagne inférieure, autour de 100–800 m d'altitude[6].
-Caryocar nuciferum est originaire des forêts primaires ou anciennes des Guyanes du Venezuela et du Brésil adjacents, fleurit de septembre à février[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caryocar nuciferum pousse au Venezuela, dans les plaines sempervirentes de terre ferme (non inondées) et les forêts de montagne inférieure, autour de 100–800 m d'altitude.
+Caryocar nuciferum est originaire des forêts primaires ou anciennes des Guyanes du Venezuela et du Brésil adjacents, fleurit de septembre à février.
 Caryocar nuciferum est rare à l'état sauvage dans les forêts mixtes du Nord-Ouest du Guyana.
 Il est souvent épargné de la coupe ou planté en forêt ancienne secondaire ou perturbée autour des zones peuplées par les amérindiens.
-Il fructifie tous les ans de mai à juillet, avec une forte production une fois tous les deux ans [13].
-Quelques fleurs et fruits ont été observés de septembre à janvier à Barama, tandis que l'on a vu quelques fleurs fin août à Moruca. Mais aucune période de fructification massive n'a été observée[7].
-Des arbres poussant en plein air à Mabaruma ont commencé à fructifier à l'âge de 12 ans[13].
-Les fleurs sont pollinisées par les chauves-souris et les graines sont dispersées par les agoutis et d'autres rongeurs[14].
-L'écorce de Caryocar nuciferum produit des Sclérites (cellules « pierreuses ») qui sont soit isolées et de taille gigantesque, soit sous forme de groupes ovales de quelques cellules dans l'écorce centrale et externe[15].
-Les contreforts de Caryocar nuciferum L. se localisent principalement du côté opposé à la direction d'inclinaison d'un arbre et pourraient fonctionner comme des éléments de tension. Ils contiennent des fibres de bois de tension à paroi épaisse, contrairement au bois de poupe, qui présente une quantité modérée de fibres de bois de tension avec une couche gélatineuse[16].
+Il fructifie tous les ans de mai à juillet, avec une forte production une fois tous les deux ans .
+Quelques fleurs et fruits ont été observés de septembre à janvier à Barama, tandis que l'on a vu quelques fleurs fin août à Moruca. Mais aucune période de fructification massive n'a été observée.
+Des arbres poussant en plein air à Mabaruma ont commencé à fructifier à l'âge de 12 ans.
+Les fleurs sont pollinisées par les chauves-souris et les graines sont dispersées par les agoutis et d'autres rongeurs.
+L'écorce de Caryocar nuciferum produit des Sclérites (cellules « pierreuses ») qui sont soit isolées et de taille gigantesque, soit sous forme de groupes ovales de quelques cellules dans l'écorce centrale et externe.
+Les contreforts de Caryocar nuciferum L. se localisent principalement du côté opposé à la direction d'inclinaison d'un arbre et pourraient fonctionner comme des éléments de tension. Ils contiennent des fibres de bois de tension à paroi épaisse, contrairement au bois de poupe, qui présente une quantité modérée de fibres de bois de tension avec une couche gélatineuse.
 </t>
         </is>
       </c>
@@ -642,19 +660,21 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le très gros fruit et la graine de Caryocar nuciferum sont comestibles[6],[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le très gros fruit et la graine de Caryocar nuciferum sont comestibles,.
 Il est largement cultivé (multiplié par graines) pour ses "noix" notamment en dehors de sa région d'origine.
-Elles sont exportées commercialement des Guyanes depuis les années 1930[18], dans des quantités cependant mineure au niveau international[9] : à petite échelle du Suriname vers les Pays-Bas, où les noix sont vendues 1,25 USD pièce lors de festivités spéciales surinamaises.
-Au Guyana, l'extraction commerciale a lieu autour de Mabura Hill[7]. Il existe aussi un marché depuis le Brésil[5].
-Elles sont largement consommées localement, et très appréciées des peuples autochtones[9].
-Caryocar nuciferum est aussi cultivé notamment aux Antilles[8] et occasionnellement en Californie, les noix commercialisées sur le marché mondial sont principalement récoltées sur des pieds sauvages[19].
+Elles sont exportées commercialement des Guyanes depuis les années 1930, dans des quantités cependant mineure au niveau international : à petite échelle du Suriname vers les Pays-Bas, où les noix sont vendues 1,25 USD pièce lors de festivités spéciales surinamaises.
+Au Guyana, l'extraction commerciale a lieu autour de Mabura Hill. Il existe aussi un marché depuis le Brésil.
+Elles sont largement consommées localement, et très appréciées des peuples autochtones.
+Caryocar nuciferum est aussi cultivé notamment aux Antilles et occasionnellement en Californie, les noix commercialisées sur le marché mondial sont principalement récoltées sur des pieds sauvages.
 La coque dure et ligneuse du noyau est ouverte à la machette et la paroi brune des graines doit être décollée.
-Les graines blanches sont consommées crues, ou grillées[4], et représentent environ 27 % du poids du fruit[4].
-Elles sont analogues aux amandes, ou à la noix de coco (en plus délicat et avec une texture plus douce), par le goût et donnent une huile comestible de bonne qualité[20],[21], qui peut être utilisée en cuisine, mais la pratique est peu courante en raison de la rareté de la ressource[13],[8]. Avec son goût délicieux et sa haute valeur nutritionnelle, la noix de sauari présente un potentiel commercial prometteur en tant que produit forestier non ligneux[22],[23]. Cependant, plus du tiers des graines récoltées en forêt sont gâtées ou endommagées par les rongeurs[7].
-Caryocar nuciferum présenterait par ailleurs des propriétés fébrifuges[13].
-Dans le nord-ouest du Guyana, le bois serait récolté comme bois commercial, et vendu cher car réputé durable, résistant à la fois dans l'eau salée et dans l'eau douce, et donc employé par les constructeurs de grands navires en bois en état de navigabilité («ballahoos») dans le secteur de la rivière Pomeroon[7].
+Les graines blanches sont consommées crues, ou grillées, et représentent environ 27 % du poids du fruit.
+Elles sont analogues aux amandes, ou à la noix de coco (en plus délicat et avec une texture plus douce), par le goût et donnent une huile comestible de bonne qualité qui peut être utilisée en cuisine, mais la pratique est peu courante en raison de la rareté de la ressource,. Avec son goût délicieux et sa haute valeur nutritionnelle, la noix de sauari présente un potentiel commercial prometteur en tant que produit forestier non ligneux,. Cependant, plus du tiers des graines récoltées en forêt sont gâtées ou endommagées par les rongeurs.
+Caryocar nuciferum présenterait par ailleurs des propriétés fébrifuges.
+Dans le nord-ouest du Guyana, le bois serait récolté comme bois commercial, et vendu cher car réputé durable, résistant à la fois dans l'eau salée et dans l'eau douce, et donc employé par les constructeurs de grands navires en bois en état de navigabilité («ballahoos») dans le secteur de la rivière Pomeroon.
 </t>
         </is>
       </c>
@@ -683,9 +703,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[24] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PEKEA {tuberculoſa) foliis digitatis, ſubtùs tomentoſis. (Tabula 239.)
 Amygdala Guianenſis. Clus. Exot. lib.2. cap.6. J. Bauh. Hiſt, Plant, t.1. lib.3. p.329
 Amygdala Guianenſis. Pluk. Phyt. tab.323. fig.4. 
